--- a/Budget/Receipts.xlsx
+++ b/Budget/Receipts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gripper-Arm\Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D410F-3148-40F2-837D-5E2E957B04C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3585AF-3895-4B67-9459-CA54AF582569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1710" windowWidth="21600" windowHeight="11295" xr2:uid="{18B1F6E3-7270-4D37-B003-C6AE330A6F2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18B1F6E3-7270-4D37-B003-C6AE330A6F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Kiara</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>HSBC</t>
+  </si>
+  <si>
+    <t>PCB Components</t>
+  </si>
+  <si>
+    <t>Digikey</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECB521B-E542-4355-B552-A0C04B5E072C}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +556,35 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45092</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>225.99</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>253.11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
